--- a/시장분석용_정보/시장분석용_4690032000.xlsx
+++ b/시장분석용_정보/시장분석용_4690032000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 4159602052</t>
   </si>
   <si>
@@ -184,13 +274,16 @@
     <t>202205 4159602052</t>
   </si>
   <si>
+    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkMzgxOTYxIzMxIyQxIyQ3IyQxMyQyNjE0ODEjNTEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
     <t>서울의원</t>
   </si>
   <si>
-    <t>전라남도 진도군 고군면 오일시2길 107-9</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM3MSMkMiMkMCMkMDAkMzgxOTYxIzMxIyQxIyQ3IyQxMyQyNjE0ODEjNTEjJDEjJDYjJDgz</t>
+    <t>전라남도 진도군 고군면 오일시2길 107-9 107</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -551,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,43 +747,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>16245</v>
+        <v>1206</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>53346615</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>4159602052</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J2">
+        <v>4690032000</v>
+      </c>
+      <c r="K2">
         <v>40.55454545454546</v>
       </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2">
-        <v>4690032000</v>
+      <c r="L2" t="s">
+        <v>90</v>
       </c>
       <c r="M2">
         <v>589497</v>
@@ -702,96 +885,186 @@
         <v>18250</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>86.3</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>12.79</v>
+      </c>
+      <c r="W2">
+        <v>5.02</v>
+      </c>
+      <c r="X2">
+        <v>13.7</v>
+      </c>
+      <c r="Y2">
+        <v>26.48</v>
+      </c>
+      <c r="Z2">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>5.02</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>54.34</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <v>15.53</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <v>3.65</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>13.7</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>12.79</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>20.55</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>75.8</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>3.65</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>13.7</v>
+      </c>
+      <c r="BA2">
+        <v>54.34</v>
+      </c>
+      <c r="BB2">
+        <v>28.31</v>
+      </c>
+      <c r="BC2">
+        <v>3.65</v>
+      </c>
+      <c r="BD2">
+        <v>5.02</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>31.96</v>
+      </c>
+      <c r="BH2">
+        <v>36.99</v>
+      </c>
+      <c r="BI2">
+        <v>36.99</v>
+      </c>
+      <c r="BJ2">
+        <v>16.7</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>37746</v>
+        <v>2742</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>53346615</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>4159602052</v>
       </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J3">
+        <v>4690032000</v>
+      </c>
+      <c r="K3">
         <v>40.55454545454546</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3">
-        <v>4690032000</v>
+      <c r="L3" t="s">
+        <v>90</v>
       </c>
       <c r="M3">
         <v>1090714</v>
@@ -803,96 +1076,186 @@
         <v>29750</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.24</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>38.66</v>
+      </c>
+      <c r="V3">
+        <v>25.21</v>
+      </c>
+      <c r="W3">
+        <v>33.89</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>33.05</v>
+      </c>
+      <c r="Z3">
+        <v>66.95</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>3.24</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>44.53</v>
       </c>
-      <c r="T3">
+      <c r="AJ3">
         <v>36.44</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>4.45</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>11.34</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>36.44</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>59.11</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
         <v>4.45</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>52.23</v>
+      </c>
+      <c r="BB3">
+        <v>11.34</v>
+      </c>
+      <c r="BC3">
+        <v>36.44</v>
+      </c>
+      <c r="BD3">
+        <v>3.24</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>52.23</v>
+      </c>
+      <c r="BH3">
+        <v>100</v>
+      </c>
+      <c r="BI3">
+        <v>100</v>
+      </c>
+      <c r="BJ3">
+        <v>33.3</v>
+      </c>
+      <c r="BK3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>59107</v>
+        <v>4260</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>53346615</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>4159602052</v>
       </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J4">
+        <v>4690032000</v>
+      </c>
+      <c r="K4">
         <v>40.55454545454546</v>
       </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4">
-        <v>4690032000</v>
+      <c r="L4" t="s">
+        <v>90</v>
       </c>
       <c r="M4">
         <v>148575</v>
@@ -904,41 +1267,41 @@
         <v>15000</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>50</v>
+      </c>
+      <c r="V4">
+        <v>50</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>100</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
       <c r="AB4">
         <v>0</v>
       </c>
@@ -949,51 +1312,141 @@
         <v>0</v>
       </c>
       <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>100</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>100</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>100</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>100</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>100</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>80570</v>
+        <v>5784</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>53346615</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>4159602052</v>
       </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J5">
+        <v>4690032000</v>
+      </c>
+      <c r="K5">
         <v>40.55454545454546</v>
       </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5">
-        <v>4690032000</v>
+      <c r="L5" t="s">
+        <v>90</v>
       </c>
       <c r="M5">
         <v>707154</v>
@@ -1005,96 +1458,186 @@
         <v>27100</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.07</v>
+      </c>
+      <c r="T5">
+        <v>11.07</v>
+      </c>
+      <c r="U5">
+        <v>40.59</v>
+      </c>
+      <c r="V5">
+        <v>4.06</v>
+      </c>
+      <c r="W5">
+        <v>33.21</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>73.8</v>
+      </c>
+      <c r="Z5">
+        <v>4.06</v>
+      </c>
+      <c r="AA5">
+        <v>22.14</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>15.13</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>40.59</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>33.21</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
         <v>11.07</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>40.59</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>37.27</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>11.07</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>11.07</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>33.21</v>
+      </c>
+      <c r="BA5">
+        <v>15.13</v>
+      </c>
+      <c r="BB5">
+        <v>11.07</v>
+      </c>
+      <c r="BC5">
+        <v>40.59</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>22.14</v>
+      </c>
+      <c r="BH5">
+        <v>26.2</v>
+      </c>
+      <c r="BI5">
+        <v>26.2</v>
+      </c>
+      <c r="BJ5">
+        <v>40</v>
+      </c>
+      <c r="BK5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>102194</v>
+        <v>7327</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>53346615</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>4159602052</v>
       </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J6">
+        <v>4690032000</v>
+      </c>
+      <c r="K6">
         <v>40.55454545454546</v>
       </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6">
-        <v>4690032000</v>
+      <c r="L6" t="s">
+        <v>90</v>
       </c>
       <c r="M6">
         <v>480308</v>
@@ -1106,96 +1649,186 @@
         <v>17380</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>92.41</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>5.52</v>
+      </c>
+      <c r="V6">
+        <v>63.29</v>
+      </c>
+      <c r="W6">
+        <v>17.26</v>
+      </c>
+      <c r="X6">
+        <v>7.59</v>
+      </c>
+      <c r="Y6">
+        <v>94.48</v>
+      </c>
+      <c r="Z6">
+        <v>5.52</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>80.55</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>13.92</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>5.52</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>80.55</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>19.45</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>13.92</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>5.52</v>
+      </c>
+      <c r="BC6">
+        <v>80.55</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>22.78</v>
+      </c>
+      <c r="BI6">
+        <v>22.78</v>
+      </c>
+      <c r="BJ6">
+        <v>25</v>
+      </c>
+      <c r="BK6">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>123906</v>
+        <v>8867</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>53346615</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>4159602052</v>
       </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J7">
+        <v>4690032000</v>
+      </c>
+      <c r="K7">
         <v>40.55454545454546</v>
       </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7">
-        <v>4690032000</v>
+      <c r="L7" t="s">
+        <v>90</v>
       </c>
       <c r="M7">
         <v>537106</v>
@@ -1207,96 +1840,186 @@
         <v>24750</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="Q7">
+        <v>55.56</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.14</v>
+      </c>
+      <c r="T7">
+        <v>30.3</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>55.56</v>
+      </c>
+      <c r="Y7">
+        <v>65.66</v>
+      </c>
+      <c r="Z7">
+        <v>34.34</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>10.1</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>55.56</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
         <v>34.34</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>55.56</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>10.1</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
         <v>20.2</v>
       </c>
-      <c r="AG7">
+      <c r="AW7">
         <v>14.14</v>
       </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>10.1</v>
+      </c>
+      <c r="BA7">
+        <v>14.14</v>
+      </c>
+      <c r="BB7">
+        <v>20.2</v>
+      </c>
+      <c r="BC7">
+        <v>55.56</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>20.2</v>
+      </c>
+      <c r="BH7">
+        <v>34.34</v>
+      </c>
+      <c r="BI7">
+        <v>34.34</v>
+      </c>
+      <c r="BJ7">
+        <v>50</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>145634</v>
+        <v>10415</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8">
         <v>202007</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>53346615</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>4159602052</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J8">
+        <v>4690032000</v>
+      </c>
+      <c r="K8">
         <v>40.55454545454546</v>
       </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8">
-        <v>4690032000</v>
+      <c r="L8" t="s">
+        <v>90</v>
       </c>
       <c r="M8">
         <v>539804</v>
@@ -1308,96 +2031,186 @@
         <v>26375</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>14.22</v>
+      </c>
+      <c r="U8">
+        <v>56.87</v>
+      </c>
+      <c r="V8">
+        <v>28.91</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>14.22</v>
+      </c>
+      <c r="Z8">
+        <v>85.78</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>23.7</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>56.87</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>19.43</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>23.7</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>56.87</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
         <v>19.43</v>
       </c>
-      <c r="AG8">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>100</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>85.78</v>
+      </c>
+      <c r="BI8">
+        <v>100</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>167355</v>
+        <v>11967</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
         <v>202008</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>53346615</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>4159602052</v>
       </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J9">
+        <v>4690032000</v>
+      </c>
+      <c r="K9">
         <v>40.55454545454546</v>
       </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9">
-        <v>4690032000</v>
+      <c r="L9" t="s">
+        <v>90</v>
       </c>
       <c r="M9">
         <v>574793</v>
@@ -1409,96 +2222,186 @@
         <v>16143</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>36.73</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>63.27</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>13.27</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="W9">
+        <v>14.16</v>
+      </c>
+      <c r="X9">
+        <v>63.27</v>
+      </c>
+      <c r="Y9">
+        <v>41.59</v>
+      </c>
+      <c r="Z9">
+        <v>58.41</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>4.42</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>95.58</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
         <v>95.58</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>4.42</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>4.42</v>
+      </c>
+      <c r="BB9">
+        <v>95.58</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>4.42</v>
+      </c>
+      <c r="BI9">
+        <v>4.42</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>189059</v>
+        <v>13512</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10">
         <v>202009</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>53346615</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>4159602052</v>
       </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J10">
+        <v>4690032000</v>
+      </c>
+      <c r="K10">
         <v>40.55454545454546</v>
       </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10">
-        <v>4690032000</v>
+      <c r="L10" t="s">
+        <v>90</v>
       </c>
       <c r="M10">
         <v>524616</v>
@@ -1510,7 +2413,7 @@
         <v>17000</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1519,87 +2422,177 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>64.22</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>30.39</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>10.78</v>
+      </c>
+      <c r="Z10">
+        <v>89.22</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>5.39</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>25</v>
       </c>
-      <c r="Y10">
+      <c r="AO10">
         <v>69.61</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>5.39</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>69.61</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>5.39</v>
       </c>
-      <c r="AF10">
+      <c r="AV10">
         <v>19.61</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>5.39</v>
+      </c>
+      <c r="BB10">
+        <v>35.78</v>
+      </c>
+      <c r="BC10">
+        <v>58.82</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="BH10">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="BI10">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="BJ10">
+        <v>20</v>
+      </c>
+      <c r="BK10">
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>210788</v>
+        <v>15059</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11">
         <v>202010</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>53346615</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>4159602052</v>
       </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J11">
+        <v>4690032000</v>
+      </c>
+      <c r="K11">
         <v>40.55454545454546</v>
       </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11">
-        <v>4690032000</v>
+      <c r="L11" t="s">
+        <v>90</v>
       </c>
       <c r="M11">
         <v>507797</v>
@@ -1611,7 +2604,7 @@
         <v>12275</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1620,87 +2613,177 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>11.2</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>62.93</v>
+      </c>
+      <c r="V11">
+        <v>3.56</v>
+      </c>
+      <c r="W11">
+        <v>22.3</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>21.89</v>
+      </c>
+      <c r="Z11">
+        <v>11.61</v>
+      </c>
+      <c r="AA11">
+        <v>66.5</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>8.76</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>1.53</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>81.47</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>8.25</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>1.53</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>69.34999999999999</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>8.76</v>
       </c>
-      <c r="AF11">
+      <c r="AV11">
         <v>20.37</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>61.1</v>
+      </c>
+      <c r="BA11">
+        <v>8.76</v>
+      </c>
+      <c r="BB11">
+        <v>23.93</v>
+      </c>
+      <c r="BC11">
+        <v>6.21</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>89.70999999999999</v>
+      </c>
+      <c r="BH11">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="BI11">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="BJ11">
+        <v>16.7</v>
+      </c>
+      <c r="BK11">
+        <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>232578</v>
+        <v>16610</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12">
         <v>202011</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>53346615</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>4159602052</v>
       </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J12">
+        <v>4690032000</v>
+      </c>
+      <c r="K12">
         <v>40.55454545454546</v>
       </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12">
-        <v>4690032000</v>
+      <c r="L12" t="s">
+        <v>90</v>
       </c>
       <c r="M12">
         <v>374793</v>
@@ -1712,10 +2795,10 @@
         <v>13280</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1724,84 +2807,174 @@
         <v>2.86</v>
       </c>
       <c r="T12">
-        <v>88.09999999999999</v>
+        <v>5.27</v>
       </c>
       <c r="U12">
         <v>6.78</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>82.83</v>
       </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>2.26</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
-        <v>0</v>
+        <v>85.09</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AA12">
+        <v>6.78</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>2.86</v>
+      </c>
+      <c r="AJ12">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AK12">
+        <v>6.78</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>2.26</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>12.05</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>82.83</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>2.86</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>2.26</v>
       </c>
+      <c r="AX12">
+        <v>6.78</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>5.12</v>
+      </c>
+      <c r="BB12">
+        <v>5.27</v>
+      </c>
+      <c r="BC12">
+        <v>82.83</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>6.78</v>
+      </c>
+      <c r="BG12">
+        <v>12.05</v>
+      </c>
+      <c r="BH12">
+        <v>12.05</v>
+      </c>
+      <c r="BI12">
+        <v>12.05</v>
+      </c>
+      <c r="BJ12">
+        <v>20</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>254410</v>
+        <v>18152</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13">
         <v>202012</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="E13">
-        <v>53346615</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>4159602052</v>
       </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J13">
+        <v>4690032000</v>
+      </c>
+      <c r="K13">
         <v>40.55454545454546</v>
       </c>
-      <c r="K13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13">
-        <v>4690032000</v>
+      <c r="L13" t="s">
+        <v>90</v>
       </c>
       <c r="M13">
         <v>133226</v>
@@ -1813,7 +2986,7 @@
         <v>8500</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1825,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>23.53</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1837,72 +3010,162 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>100</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>23.53</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>21.57</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>54.9</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
         <v>45.1</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
         <v>54.9</v>
       </c>
-      <c r="AG13">
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>21.57</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>54.9</v>
+      </c>
+      <c r="BC13">
+        <v>23.53</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="BH13">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="BI13">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="BJ13">
+        <v>33.3</v>
+      </c>
+      <c r="BK13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>319958</v>
+        <v>22754</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14">
         <v>202103</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>53346615</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>4159602052</v>
       </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J14">
+        <v>4690032000</v>
+      </c>
+      <c r="K14">
         <v>40.55454545454546</v>
       </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14">
-        <v>4690032000</v>
+      <c r="L14" t="s">
+        <v>90</v>
       </c>
       <c r="M14">
         <v>910757</v>
@@ -1914,13 +3177,13 @@
         <v>60000</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>61.11</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>8.33</v>
@@ -1932,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>30.56</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
       <c r="Z14">
-        <v>0</v>
+        <v>61.11</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -1956,54 +3219,144 @@
         <v>0</v>
       </c>
       <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>61.11</v>
+      </c>
+      <c r="AI14">
+        <v>8.33</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>30.56</v>
       </c>
-      <c r="AE14">
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>30.56</v>
+      </c>
+      <c r="AU14">
         <v>61.11</v>
       </c>
-      <c r="AF14">
+      <c r="AV14">
         <v>8.33</v>
       </c>
-      <c r="AG14">
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>69.44</v>
+      </c>
+      <c r="BB14">
+        <v>30.56</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>8.33</v>
+      </c>
+      <c r="BH14">
+        <v>69.44</v>
+      </c>
+      <c r="BI14">
+        <v>69.44</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>341943</v>
+        <v>24307</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15">
         <v>202104</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>53346615</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>4159602052</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J15">
+        <v>4690032000</v>
+      </c>
+      <c r="K15">
         <v>40.55454545454546</v>
       </c>
-      <c r="K15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15">
-        <v>4690032000</v>
+      <c r="L15" t="s">
+        <v>90</v>
       </c>
       <c r="M15">
         <v>113424</v>
@@ -2015,7 +3368,7 @@
         <v>7433</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2024,87 +3377,177 @@
         <v>0</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>32.74</v>
+      </c>
+      <c r="U15">
         <v>67.26000000000001</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>100</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>67.26000000000001</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <v>24.66</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>8.07</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>8.07</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>24.66</v>
       </c>
-      <c r="AF15">
+      <c r="AV15">
         <v>67.26000000000001</v>
       </c>
-      <c r="AG15">
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>8.07</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>75.34</v>
+      </c>
+      <c r="BH15">
+        <v>75.34</v>
+      </c>
+      <c r="BI15">
+        <v>100</v>
+      </c>
+      <c r="BJ15">
+        <v>33.3</v>
+      </c>
+      <c r="BK15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>363959</v>
+        <v>25871</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16">
         <v>202105</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>53346615</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>4159602052</v>
       </c>
-      <c r="G16" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J16">
+        <v>4690032000</v>
+      </c>
+      <c r="K16">
         <v>40.55454545454546</v>
       </c>
-      <c r="K16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16">
-        <v>4690032000</v>
+      <c r="L16" t="s">
+        <v>90</v>
       </c>
       <c r="M16">
         <v>449131</v>
@@ -2116,7 +3559,7 @@
         <v>14783</v>
       </c>
       <c r="P16">
-        <v>6.31</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2128,84 +3571,174 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>18.15</v>
+        <v>6.88</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>20.97</v>
       </c>
       <c r="W16">
         <v>67.64</v>
       </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>6.76</v>
+      </c>
+      <c r="Z16">
+        <v>6.88</v>
+      </c>
+      <c r="AA16">
+        <v>86.36</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>6.31</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>18.15</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>67.64</v>
+      </c>
+      <c r="AN16">
         <v>7.89</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
         <v>81.84999999999999</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
         <v>18.15</v>
       </c>
+      <c r="AX16">
+        <v>6.31</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>18.15</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>6.31</v>
+      </c>
+      <c r="BG16">
+        <v>100</v>
+      </c>
+      <c r="BH16">
+        <v>100</v>
+      </c>
+      <c r="BI16">
+        <v>100</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>386067</v>
+        <v>27437</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17">
         <v>202106</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>53346615</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>4159602052</v>
       </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J17">
+        <v>4690032000</v>
+      </c>
+      <c r="K17">
         <v>40.55454545454546</v>
       </c>
-      <c r="K17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17">
-        <v>4690032000</v>
+      <c r="L17" t="s">
+        <v>90</v>
       </c>
       <c r="M17">
         <v>833323</v>
@@ -2217,96 +3750,186 @@
         <v>41350</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1.81</v>
+      </c>
+      <c r="U17">
+        <v>17.53</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>72.55</v>
+      </c>
+      <c r="X17">
+        <v>8.1</v>
+      </c>
+      <c r="Y17">
+        <v>25.63</v>
+      </c>
+      <c r="Z17">
         <v>74.37</v>
       </c>
-      <c r="T17">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>74.37</v>
+      </c>
+      <c r="AJ17">
         <v>25.63</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
         <v>19.35</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>72.55</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
         <v>8.1</v>
       </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>72.55</v>
+      </c>
+      <c r="BB17">
+        <v>19.35</v>
+      </c>
+      <c r="BC17">
+        <v>8.1</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>25.63</v>
+      </c>
+      <c r="BH17">
+        <v>25.63</v>
+      </c>
+      <c r="BI17">
+        <v>25.63</v>
+      </c>
+      <c r="BJ17">
+        <v>25</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>452507</v>
+        <v>32135</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18">
         <v>202109</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>53346615</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>4159602052</v>
       </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J18">
+        <v>4690032000</v>
+      </c>
+      <c r="K18">
         <v>40.55454545454546</v>
       </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18">
-        <v>4690032000</v>
+      <c r="L18" t="s">
+        <v>90</v>
       </c>
       <c r="M18">
         <v>379168</v>
@@ -2318,96 +3941,186 @@
         <v>18575</v>
       </c>
       <c r="P18">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="Q18">
         <v>5.79</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
+        <v>87.48</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>6.73</v>
       </c>
-      <c r="T18">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>5.79</v>
+      </c>
+      <c r="Y18">
+        <v>5.79</v>
+      </c>
+      <c r="Z18">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>5.79</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>6.73</v>
+      </c>
+      <c r="AJ18">
         <v>80.75</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>6.73</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>86.54000000000001</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>6.73</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>6.73</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>12.52</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>87.48</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>80.75</v>
+      </c>
+      <c r="BE18">
+        <v>5.79</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>80.75</v>
+      </c>
+      <c r="BI18">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>474765</v>
+        <v>33702</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
         <v>202110</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>53346615</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>4159602052</v>
       </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J19">
+        <v>4690032000</v>
+      </c>
+      <c r="K19">
         <v>40.55454545454546</v>
       </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19">
-        <v>4690032000</v>
+      <c r="L19" t="s">
+        <v>90</v>
       </c>
       <c r="M19">
         <v>542372</v>
@@ -2419,7 +4132,7 @@
         <v>24250</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>82.47</v>
       </c>
       <c r="Q19">
         <v>17.53</v>
@@ -2434,81 +4147,171 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>20.62</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="X19">
+        <v>17.53</v>
+      </c>
+      <c r="Y19">
+        <v>17.53</v>
+      </c>
+      <c r="Z19">
+        <v>56.7</v>
+      </c>
+      <c r="AA19">
+        <v>25.77</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>17.53</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
         <v>77.31999999999999</v>
       </c>
-      <c r="Y19">
+      <c r="AO19">
         <v>5.15</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>17.53</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>5.15</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>56.7</v>
       </c>
-      <c r="AF19">
+      <c r="AV19">
         <v>20.62</v>
       </c>
-      <c r="AG19">
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>17.53</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>82.47</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>25.77</v>
+      </c>
+      <c r="BH19">
+        <v>82.47</v>
+      </c>
+      <c r="BI19">
+        <v>82.47</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>497046</v>
+        <v>35270</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20">
         <v>202111</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>53346615</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>4159602052</v>
       </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J20">
+        <v>4690032000</v>
+      </c>
+      <c r="K20">
         <v>40.55454545454546</v>
       </c>
-      <c r="K20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20">
-        <v>4690032000</v>
+      <c r="L20" t="s">
+        <v>90</v>
       </c>
       <c r="M20">
         <v>989162</v>
@@ -2520,96 +4323,186 @@
         <v>34900</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>68.48</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>31.52</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>3.15</v>
+      </c>
+      <c r="U20">
         <v>31.52</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
+      <c r="V20">
+        <v>31.52</v>
+      </c>
+      <c r="W20">
+        <v>2.29</v>
+      </c>
+      <c r="X20">
+        <v>31.52</v>
+      </c>
+      <c r="Y20">
+        <v>68.48</v>
+      </c>
+      <c r="Z20">
+        <v>31.52</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>31.52</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>63.04</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
         <v>5.44</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>63.04</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>5.44</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
         <v>31.52</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>36.96</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>63.04</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>36.96</v>
+      </c>
+      <c r="BI20">
+        <v>36.96</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>66.7</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>519369</v>
+        <v>36852</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21">
         <v>202112</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>53346615</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>4159602052</v>
       </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J21">
+        <v>4690032000</v>
+      </c>
+      <c r="K21">
         <v>40.55454545454546</v>
       </c>
-      <c r="K21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21">
-        <v>4690032000</v>
+      <c r="L21" t="s">
+        <v>90</v>
       </c>
       <c r="M21">
         <v>552839</v>
@@ -2621,96 +4514,186 @@
         <v>26750</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>10.28</v>
       </c>
-      <c r="S21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>16.82</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
+        <v>10.28</v>
+      </c>
+      <c r="Z21">
         <v>72.90000000000001</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
       <c r="AA21">
-        <v>0</v>
+        <v>16.82</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>10.28</v>
+      </c>
+      <c r="AI21">
         <v>16.82</v>
       </c>
-      <c r="AD21">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>16.82</v>
       </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
+      <c r="AT21">
+        <v>16.82</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>66.36</v>
       </c>
-      <c r="AG21">
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>10.28</v>
+      </c>
+      <c r="BB21">
+        <v>89.72</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>16.82</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="BH21">
+        <v>83.18000000000001</v>
+      </c>
+      <c r="BI21">
+        <v>83.18000000000001</v>
+      </c>
+      <c r="BJ21">
+        <v>25</v>
+      </c>
+      <c r="BK21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>541660</v>
+        <v>38406</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
         <v>202201</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2022</v>
       </c>
-      <c r="E22">
-        <v>53346615</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>4159602052</v>
       </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J22">
+        <v>4690032000</v>
+      </c>
+      <c r="K22">
         <v>40.55454545454546</v>
       </c>
-      <c r="K22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22">
-        <v>4690032000</v>
+      <c r="L22" t="s">
+        <v>90</v>
       </c>
       <c r="M22">
         <v>117333</v>
@@ -2722,96 +4705,186 @@
         <v>7567</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>33.92</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>66.08</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>15.42</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>18.5</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
       <c r="X22">
-        <v>15.42</v>
+        <v>66.08</v>
       </c>
       <c r="Y22">
         <v>66.08</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>15.42</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
         <v>18.5</v>
       </c>
-      <c r="AD22">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>15.42</v>
+      </c>
+      <c r="AO22">
         <v>66.08</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>18.5</v>
+      </c>
+      <c r="AT22">
+        <v>66.08</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
         <v>15.42</v>
       </c>
-      <c r="AG22">
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>15.42</v>
+      </c>
+      <c r="BB22">
+        <v>18.5</v>
+      </c>
+      <c r="BC22">
+        <v>66.08</v>
+      </c>
+      <c r="BD22">
+        <v>18.5</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>66.08</v>
+      </c>
+      <c r="BH22">
+        <v>81.5</v>
+      </c>
+      <c r="BI22">
+        <v>81.5</v>
+      </c>
+      <c r="BJ22">
+        <v>33.3</v>
+      </c>
+      <c r="BK22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>563955</v>
+        <v>39959</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23">
         <v>202202</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2022</v>
       </c>
-      <c r="E23">
-        <v>53346615</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>4159602052</v>
       </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J23">
+        <v>4690032000</v>
+      </c>
+      <c r="K23">
         <v>40.55454545454546</v>
       </c>
-      <c r="K23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23">
-        <v>4690032000</v>
+      <c r="L23" t="s">
+        <v>90</v>
       </c>
       <c r="M23">
         <v>112509</v>
@@ -2823,7 +4896,7 @@
         <v>7267</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2835,84 +4908,174 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>64.22</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>19.72</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
+        <v>16.06</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>19.72</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>80.28</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>35.78</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>64.22</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
         <v>64.22</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>35.78</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>35.78</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>64.22</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>83.94</v>
+      </c>
+      <c r="BH23">
+        <v>83.94</v>
+      </c>
+      <c r="BI23">
+        <v>83.94</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>608717</v>
+        <v>43070</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24">
         <v>202204</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2022</v>
       </c>
-      <c r="E24">
-        <v>53346615</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>4159602052</v>
       </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J24">
+        <v>4690032000</v>
+      </c>
+      <c r="K24">
         <v>40.55454545454546</v>
       </c>
-      <c r="K24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24">
-        <v>4690032000</v>
+      <c r="L24" t="s">
+        <v>90</v>
       </c>
       <c r="M24">
         <v>238665</v>
@@ -2924,96 +5087,186 @@
         <v>15567</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>12.21</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.21</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="Y24">
+        <v>100</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>74.95</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>12.85</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>12.21</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>12.85</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
         <v>87.15000000000001</v>
       </c>
-      <c r="AG24">
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>74.95</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>25.05</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="BI24">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>631092</v>
+        <v>44640</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
         <v>202205</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2022</v>
       </c>
-      <c r="E25">
-        <v>53346615</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>4159602052</v>
       </c>
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J25">
+        <v>4690032000</v>
+      </c>
+      <c r="K25">
         <v>40.55454545454546</v>
       </c>
-      <c r="K25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25">
-        <v>4690032000</v>
+      <c r="L25" t="s">
+        <v>90</v>
       </c>
       <c r="M25">
         <v>100721</v>
@@ -3025,37 +5278,37 @@
         <v>9850</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>28.93</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>28.93</v>
       </c>
-      <c r="S25">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>71.06999999999999</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
       <c r="Y25">
-        <v>0</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>28.93</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -3067,15 +5320,105 @@
         <v>0</v>
       </c>
       <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>28.93</v>
+      </c>
+      <c r="AI25">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
         <v>100</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>28.93</v>
+      </c>
+      <c r="BB25">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>100</v>
+      </c>
+      <c r="BH25">
+        <v>100</v>
+      </c>
+      <c r="BI25">
+        <v>100</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4690032000.xlsx
+++ b/시장분석용_정보/시장분석용_4690032000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1206</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>4159602052</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4690032000</v>
@@ -708,7 +612,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>589497</v>
@@ -720,117 +624,69 @@
         <v>18250</v>
       </c>
       <c r="O2">
-        <v>86.3</v>
+        <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>54.34</v>
+      </c>
+      <c r="R2">
+        <v>15.53</v>
+      </c>
+      <c r="S2">
+        <v>3.65</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>13.7</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>68.48999999999999</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>12.79</v>
       </c>
-      <c r="V2">
-        <v>5.02</v>
-      </c>
-      <c r="W2">
-        <v>13.7</v>
-      </c>
-      <c r="X2">
-        <v>26.48</v>
-      </c>
       <c r="Y2">
-        <v>68.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>5.02</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>20.55</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>75.8</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>54.34</v>
-      </c>
-      <c r="AH2">
-        <v>15.53</v>
-      </c>
-      <c r="AI2">
-        <v>3.65</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>13.7</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>12.79</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>20.55</v>
-      </c>
-      <c r="AS2">
-        <v>75.8</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>3.65</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>2742</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>4159602052</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4690032000</v>
@@ -854,7 +710,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>1090714</v>
@@ -866,37 +722,37 @@
         <v>29750</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="R3">
-        <v>2.24</v>
+        <v>44.53</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>36.44</v>
       </c>
       <c r="T3">
-        <v>38.66</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>25.21</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>33.89</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="X3">
-        <v>33.05</v>
+        <v>11.34</v>
       </c>
       <c r="Y3">
-        <v>66.95</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -905,78 +761,30 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>36.44</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>59.11</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>3.24</v>
-      </c>
-      <c r="AH3">
-        <v>44.53</v>
-      </c>
-      <c r="AI3">
-        <v>36.44</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>4.45</v>
-      </c>
-      <c r="AN3">
-        <v>11.34</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>36.44</v>
-      </c>
-      <c r="AS3">
-        <v>59.11</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>4.45</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>4260</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>4159602052</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4690032000</v>
@@ -1000,7 +808,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>148575</v>
@@ -1012,14 +820,14 @@
         <v>15000</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
@@ -1027,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1045,84 +853,36 @@
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>100</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>100</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>100</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>5784</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>4159602052</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4690032000</v>
@@ -1146,7 +906,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>707154</v>
@@ -1158,117 +918,69 @@
         <v>27100</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>15.13</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>40.59</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>33.21</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>11.07</v>
       </c>
-      <c r="S5">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>40.59</v>
+      </c>
+      <c r="AC5">
+        <v>37.27</v>
+      </c>
+      <c r="AD5">
         <v>11.07</v>
       </c>
-      <c r="T5">
-        <v>40.59</v>
-      </c>
-      <c r="U5">
-        <v>4.06</v>
-      </c>
-      <c r="V5">
-        <v>33.21</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>73.8</v>
-      </c>
-      <c r="Y5">
-        <v>4.06</v>
-      </c>
-      <c r="Z5">
-        <v>22.14</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>15.13</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>40.59</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>33.21</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>11.07</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>40.59</v>
-      </c>
-      <c r="AS5">
-        <v>37.27</v>
-      </c>
-      <c r="AT5">
-        <v>11.07</v>
-      </c>
-      <c r="AU5">
-        <v>11.07</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>7327</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>4159602052</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4690032000</v>
@@ -1292,7 +1004,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>480308</v>
@@ -1304,37 +1016,37 @@
         <v>17380</v>
       </c>
       <c r="O6">
-        <v>92.41</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>7.59</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>6.33</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>80.55</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>13.92</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>5.52</v>
       </c>
-      <c r="U6">
-        <v>63.29</v>
-      </c>
-      <c r="V6">
-        <v>17.26</v>
-      </c>
-      <c r="W6">
-        <v>7.59</v>
-      </c>
       <c r="X6">
-        <v>94.48</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>5.52</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1343,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>80.55</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>19.45</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1357,64 +1069,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>80.55</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>13.92</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>5.52</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>80.55</v>
-      </c>
-      <c r="AS6">
-        <v>19.45</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>8867</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>4159602052</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4690032000</v>
@@ -1438,7 +1102,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>537106</v>
@@ -1450,117 +1114,69 @@
         <v>24750</v>
       </c>
       <c r="O7">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="P7">
+        <v>10.1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>55.56</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>34.34</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>55.56</v>
+      </c>
+      <c r="AC7">
+        <v>10.1</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>20.2</v>
+      </c>
+      <c r="AF7">
         <v>14.14</v>
       </c>
-      <c r="S7">
-        <v>30.3</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>55.56</v>
-      </c>
-      <c r="X7">
-        <v>65.66</v>
-      </c>
-      <c r="Y7">
-        <v>34.34</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>10.1</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>55.56</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>34.34</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>55.56</v>
-      </c>
-      <c r="AS7">
-        <v>10.1</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>20.2</v>
-      </c>
-      <c r="AV7">
-        <v>14.14</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>10415</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>4159602052</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4690032000</v>
@@ -1584,7 +1200,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>539804</v>
@@ -1596,117 +1212,69 @@
         <v>26375</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>56.87</v>
       </c>
       <c r="S8">
-        <v>14.22</v>
+        <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>19.43</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>23.7</v>
+      </c>
+      <c r="AC8">
         <v>56.87</v>
       </c>
-      <c r="U8">
-        <v>28.91</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>14.22</v>
-      </c>
-      <c r="Y8">
-        <v>85.78</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>19.43</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>23.7</v>
-      </c>
-      <c r="AH8">
-        <v>56.87</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>19.43</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>23.7</v>
-      </c>
-      <c r="AS8">
-        <v>56.87</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>19.43</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>11967</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>4159602052</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4690032000</v>
@@ -1730,7 +1298,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>574793</v>
@@ -1742,37 +1310,37 @@
         <v>16143</v>
       </c>
       <c r="O9">
-        <v>36.73</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>63.27</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>13.27</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>4.42</v>
       </c>
-      <c r="U9">
-        <v>4.87</v>
-      </c>
-      <c r="V9">
-        <v>14.16</v>
-      </c>
       <c r="W9">
-        <v>63.27</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>41.59</v>
+        <v>95.58</v>
       </c>
       <c r="Y9">
-        <v>58.41</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1784,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>95.58</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1795,64 +1363,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>4.42</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>95.58</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>95.58</v>
-      </c>
-      <c r="AT9">
-        <v>4.42</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>13512</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>4159602052</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4690032000</v>
@@ -1876,7 +1396,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>524616</v>
@@ -1888,7 +1408,7 @@
         <v>17000</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1897,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>5.39</v>
       </c>
-      <c r="S10">
-        <v>64.22</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
-        <v>30.39</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X10">
-        <v>10.78</v>
+        <v>69.61</v>
       </c>
       <c r="Y10">
-        <v>89.22</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1927,78 +1447,30 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>69.61</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>19.61</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>5.39</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>25</v>
-      </c>
-      <c r="AN10">
-        <v>69.61</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>5.39</v>
-      </c>
-      <c r="AS10">
-        <v>69.61</v>
-      </c>
-      <c r="AT10">
-        <v>5.39</v>
-      </c>
-      <c r="AU10">
-        <v>19.61</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>15059</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>4159602052</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4690032000</v>
@@ -2022,7 +1494,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>507797</v>
@@ -2034,7 +1506,7 @@
         <v>12275</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2043,108 +1515,60 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>11.2</v>
+        <v>8.76</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T11">
-        <v>62.93</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>81.47</v>
       </c>
       <c r="X11">
-        <v>21.89</v>
+        <v>8.25</v>
       </c>
       <c r="Y11">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>66.5</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>20.37</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>8.76</v>
-      </c>
-      <c r="AI11">
-        <v>1.53</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>81.47</v>
-      </c>
-      <c r="AN11">
-        <v>8.25</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>1.53</v>
-      </c>
-      <c r="AS11">
-        <v>69.34999999999999</v>
-      </c>
-      <c r="AT11">
-        <v>8.76</v>
-      </c>
-      <c r="AU11">
-        <v>20.37</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>16610</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>4159602052</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4690032000</v>
@@ -2168,7 +1592,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>374793</v>
@@ -2180,10 +1604,10 @@
         <v>13280</v>
       </c>
       <c r="O12">
-        <v>97.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2192,105 +1616,57 @@
         <v>2.86</v>
       </c>
       <c r="S12">
-        <v>5.27</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="T12">
         <v>6.78</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>2.26</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>12.05</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>82.83</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>2.86</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>2.26</v>
       </c>
-      <c r="X12">
-        <v>85.09</v>
-      </c>
-      <c r="Y12">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="Z12">
-        <v>6.78</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>2.86</v>
-      </c>
-      <c r="AI12">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="AJ12">
-        <v>6.78</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>2.26</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>12.05</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>82.83</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>2.86</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>2.26</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>18152</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2302,10 +1678,10 @@
         <v>4159602052</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4690032000</v>
@@ -2314,7 +1690,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>133226</v>
@@ -2326,7 +1702,7 @@
         <v>8500</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2338,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>78.43000000000001</v>
+        <v>23.53</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2350,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>54.9</v>
       </c>
       <c r="X13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2368,75 +1744,27 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>45.1</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>54.9</v>
       </c>
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>23.53</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>21.57</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>54.9</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>45.1</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>54.9</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>22754</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202103</v>
@@ -2448,10 +1776,10 @@
         <v>4159602052</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4690032000</v>
@@ -2460,7 +1788,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>910757</v>
@@ -2472,13 +1800,13 @@
         <v>60000</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>61.11</v>
       </c>
       <c r="R14">
         <v>8.33</v>
@@ -2490,99 +1818,51 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>91.67</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>30.56</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>30.56</v>
       </c>
-      <c r="Y14">
+      <c r="AD14">
         <v>61.11</v>
       </c>
-      <c r="Z14">
+      <c r="AE14">
         <v>8.33</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>61.11</v>
-      </c>
-      <c r="AH14">
-        <v>8.33</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>30.56</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>30.56</v>
-      </c>
-      <c r="AT14">
-        <v>61.11</v>
-      </c>
-      <c r="AU14">
-        <v>8.33</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>24307</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202104</v>
@@ -2594,10 +1874,10 @@
         <v>4159602052</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4690032000</v>
@@ -2606,7 +1886,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>113424</v>
@@ -2618,7 +1898,7 @@
         <v>7433</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2627,108 +1907,60 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="S15">
-        <v>32.74</v>
+        <v>0</v>
       </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>24.66</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>8.07</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>8.07</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>24.66</v>
+      </c>
+      <c r="AE15">
         <v>67.26000000000001</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>100</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>67.26000000000001</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>24.66</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>8.07</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>8.07</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>24.66</v>
-      </c>
-      <c r="AU15">
-        <v>67.26000000000001</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>25871</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202105</v>
@@ -2740,10 +1972,10 @@
         <v>4159602052</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4690032000</v>
@@ -2752,7 +1984,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>449131</v>
@@ -2764,7 +1996,7 @@
         <v>14783</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>6.31</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2776,28 +2008,28 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>6.88</v>
+        <v>18.15</v>
       </c>
       <c r="T16">
-        <v>4.51</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>20.97</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>67.64</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>7.89</v>
       </c>
       <c r="X16">
-        <v>6.76</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>86.36</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2806,75 +2038,27 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>6.31</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
         <v>18.15</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>67.64</v>
-      </c>
-      <c r="AM16">
-        <v>7.89</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>81.84999999999999</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>18.15</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>27437</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202106</v>
@@ -2886,10 +2070,10 @@
         <v>4159602052</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4690032000</v>
@@ -2898,7 +2082,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>833323</v>
@@ -2910,117 +2094,69 @@
         <v>41350</v>
       </c>
       <c r="O17">
-        <v>91.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>74.37</v>
+      </c>
+      <c r="S17">
+        <v>25.63</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>19.35</v>
+      </c>
+      <c r="AD17">
+        <v>72.55</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>8.1</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>1.81</v>
-      </c>
-      <c r="T17">
-        <v>17.53</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>72.55</v>
-      </c>
-      <c r="W17">
-        <v>8.1</v>
-      </c>
-      <c r="X17">
-        <v>25.63</v>
-      </c>
-      <c r="Y17">
-        <v>74.37</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>74.37</v>
-      </c>
-      <c r="AI17">
-        <v>25.63</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>19.35</v>
-      </c>
-      <c r="AT17">
-        <v>72.55</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>8.1</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>32135</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202109</v>
@@ -3032,10 +2168,10 @@
         <v>4159602052</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4690032000</v>
@@ -3044,7 +2180,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>379168</v>
@@ -3056,37 +2192,37 @@
         <v>18575</v>
       </c>
       <c r="O18">
-        <v>94.20999999999999</v>
+        <v>5.79</v>
       </c>
       <c r="P18">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>87.48</v>
+        <v>6.73</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>80.75</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>6.73</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
       <c r="W18">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>94.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3095,78 +2231,30 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="AE18">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>6.73</v>
-      </c>
-      <c r="AI18">
-        <v>80.75</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>6.73</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>86.54000000000001</v>
-      </c>
-      <c r="AS18">
-        <v>6.73</v>
-      </c>
-      <c r="AT18">
-        <v>6.73</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>33702</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202110</v>
@@ -3178,10 +2266,10 @@
         <v>4159602052</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4690032000</v>
@@ -3190,7 +2278,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>542372</v>
@@ -3202,7 +2290,7 @@
         <v>24250</v>
       </c>
       <c r="O19">
-        <v>82.47</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>17.53</v>
@@ -3217,102 +2305,54 @@
         <v>0</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="X19">
         <v>5.15</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>17.53</v>
+      </c>
+      <c r="AC19">
+        <v>5.15</v>
+      </c>
+      <c r="AD19">
+        <v>56.7</v>
+      </c>
+      <c r="AE19">
         <v>20.62</v>
       </c>
-      <c r="V19">
-        <v>56.7</v>
-      </c>
-      <c r="W19">
-        <v>17.53</v>
-      </c>
-      <c r="X19">
-        <v>17.53</v>
-      </c>
-      <c r="Y19">
-        <v>56.7</v>
-      </c>
-      <c r="Z19">
-        <v>25.77</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
       <c r="AF19">
-        <v>17.53</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>77.31999999999999</v>
-      </c>
-      <c r="AN19">
-        <v>5.15</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>17.53</v>
-      </c>
-      <c r="AS19">
-        <v>5.15</v>
-      </c>
-      <c r="AT19">
-        <v>56.7</v>
-      </c>
-      <c r="AU19">
-        <v>20.62</v>
-      </c>
-      <c r="AV19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>35270</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202111</v>
@@ -3324,10 +2364,10 @@
         <v>4159602052</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4690032000</v>
@@ -3336,7 +2376,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>989162</v>
@@ -3348,117 +2388,69 @@
         <v>34900</v>
       </c>
       <c r="O20">
-        <v>68.48</v>
+        <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>31.52</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>3.15</v>
+        <v>63.04</v>
       </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>5.44</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>63.04</v>
+      </c>
+      <c r="AC20">
+        <v>5.44</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
         <v>31.52</v>
       </c>
-      <c r="U20">
-        <v>31.52</v>
-      </c>
-      <c r="V20">
-        <v>2.29</v>
-      </c>
-      <c r="W20">
-        <v>31.52</v>
-      </c>
-      <c r="X20">
-        <v>68.48</v>
-      </c>
-      <c r="Y20">
-        <v>31.52</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>31.52</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>63.04</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>5.44</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>63.04</v>
-      </c>
-      <c r="AS20">
-        <v>5.44</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>31.52</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>36852</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202112</v>
@@ -3470,10 +2462,10 @@
         <v>4159602052</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4690032000</v>
@@ -3482,7 +2474,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>552839</v>
@@ -3494,117 +2486,69 @@
         <v>26750</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>10.28</v>
       </c>
       <c r="R21">
+        <v>16.82</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>72.90000000000001</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>10.28</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>16.82</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>10.28</v>
-      </c>
-      <c r="Y21">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="Z21">
+      <c r="AC21">
         <v>16.82</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>66.36</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>10.28</v>
-      </c>
-      <c r="AH21">
-        <v>16.82</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>16.82</v>
-      </c>
-      <c r="AS21">
-        <v>16.82</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>66.36</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>38406</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202201</v>
@@ -3616,10 +2560,10 @@
         <v>4159602052</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4690032000</v>
@@ -3628,7 +2572,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>117333</v>
@@ -3640,117 +2584,69 @@
         <v>7567</v>
       </c>
       <c r="O22">
-        <v>33.92</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>66.08</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>15.42</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>18.5</v>
-      </c>
-      <c r="W22">
-        <v>66.08</v>
       </c>
       <c r="X22">
         <v>66.08</v>
       </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>18.5</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
+        <v>66.08</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
         <v>15.42</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>18.5</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>15.42</v>
-      </c>
-      <c r="AN22">
-        <v>66.08</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>18.5</v>
-      </c>
-      <c r="AS22">
-        <v>66.08</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>15.42</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>39959</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202202</v>
@@ -3762,10 +2658,10 @@
         <v>4159602052</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4690032000</v>
@@ -3774,7 +2670,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>112509</v>
@@ -3786,7 +2682,7 @@
         <v>7267</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3798,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>35.78</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>64.22</v>
       </c>
-      <c r="T23">
-        <v>19.72</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>16.06</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>19.72</v>
-      </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>80.28</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -3828,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>64.22</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>35.78</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3839,64 +2735,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>35.78</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>64.22</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>64.22</v>
-      </c>
-      <c r="AT23">
-        <v>35.78</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>43070</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202204</v>
@@ -3908,10 +2756,10 @@
         <v>4159602052</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4690032000</v>
@@ -3920,7 +2768,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>238665</v>
@@ -3932,35 +2780,35 @@
         <v>15567</v>
       </c>
       <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>74.95</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.85</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>12.21</v>
       </c>
-      <c r="P24">
-        <v>87.79000000000001</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>12.21</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>87.79000000000001</v>
-      </c>
-      <c r="X24">
-        <v>100</v>
-      </c>
       <c r="Y24">
         <v>0</v>
       </c>
@@ -3971,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3980,69 +2828,21 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>74.95</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>12.85</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>12.21</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>12.85</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>87.15000000000001</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>44640</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202205</v>
@@ -4054,10 +2854,10 @@
         <v>4159602052</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4690032000</v>
@@ -4066,7 +2866,7 @@
         <v>40.55454545454546</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>100721</v>
@@ -4078,19 +2878,19 @@
         <v>9850</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>28.93</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>71.06999999999999</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
-        <v>28.93</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -4102,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>71.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>71.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>28.93</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -4120,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -4129,54 +2929,6 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>28.93</v>
-      </c>
-      <c r="AH25">
-        <v>71.06999999999999</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>100</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
         <v>0</v>
       </c>
     </row>
